--- a/Code/Results/Cases/Case_5_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012396112597345</v>
+        <v>1.045991572272741</v>
       </c>
       <c r="D2">
-        <v>1.027279534055017</v>
+        <v>1.047912524197417</v>
       </c>
       <c r="E2">
-        <v>1.016704363937882</v>
+        <v>1.043620486007929</v>
       </c>
       <c r="F2">
-        <v>1.016314198724507</v>
+        <v>1.053562309972953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04629243837438</v>
+        <v>1.043376629930184</v>
       </c>
       <c r="J2">
-        <v>1.03421227564622</v>
+        <v>1.051048350395161</v>
       </c>
       <c r="K2">
-        <v>1.038371466375731</v>
+        <v>1.050673836319029</v>
       </c>
       <c r="L2">
-        <v>1.027935784150162</v>
+        <v>1.046393837905037</v>
       </c>
       <c r="M2">
-        <v>1.027550835003845</v>
+        <v>1.056307935735966</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018608248133002</v>
+        <v>1.047236337949261</v>
       </c>
       <c r="D3">
-        <v>1.032087509155201</v>
+        <v>1.048887649499187</v>
       </c>
       <c r="E3">
-        <v>1.021836941982804</v>
+        <v>1.044690870434723</v>
       </c>
       <c r="F3">
-        <v>1.023113007498965</v>
+        <v>1.055000161718333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048638614238377</v>
+        <v>1.043777781630567</v>
       </c>
       <c r="J3">
-        <v>1.038604174748462</v>
+        <v>1.051939546910758</v>
       </c>
       <c r="K3">
-        <v>1.042325648046573</v>
+        <v>1.051460478548694</v>
       </c>
       <c r="L3">
-        <v>1.03219783590123</v>
+        <v>1.04727461669178</v>
       </c>
       <c r="M3">
-        <v>1.033458453545544</v>
+        <v>1.057557257706076</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02252189091218</v>
+        <v>1.048041143505221</v>
       </c>
       <c r="D4">
-        <v>1.035119039021331</v>
+        <v>1.049517997423586</v>
       </c>
       <c r="E4">
-        <v>1.025075913521226</v>
+        <v>1.04538315364366</v>
       </c>
       <c r="F4">
-        <v>1.027399964889191</v>
+        <v>1.05593025744688</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050106287137674</v>
+        <v>1.044035803055176</v>
       </c>
       <c r="J4">
-        <v>1.041366517841672</v>
+        <v>1.052515067234552</v>
       </c>
       <c r="K4">
-        <v>1.044811308422489</v>
+        <v>1.051968250394143</v>
       </c>
       <c r="L4">
-        <v>1.034880828808653</v>
+        <v>1.047843618625593</v>
       </c>
       <c r="M4">
-        <v>1.037178571807023</v>
+        <v>1.058364843853476</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024143023821425</v>
+        <v>1.048379333379124</v>
       </c>
       <c r="D5">
-        <v>1.036375305933309</v>
+        <v>1.049782848163069</v>
       </c>
       <c r="E5">
-        <v>1.026418819632248</v>
+        <v>1.045674113111397</v>
       </c>
       <c r="F5">
-        <v>1.029176655914888</v>
+        <v>1.056321204275614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05071169254763</v>
+        <v>1.044143905090804</v>
       </c>
       <c r="J5">
-        <v>1.042509616044988</v>
+        <v>1.05275674427203</v>
       </c>
       <c r="K5">
-        <v>1.04583956787498</v>
+        <v>1.052181422931125</v>
       </c>
       <c r="L5">
-        <v>1.035991638138208</v>
+        <v>1.048082608404508</v>
       </c>
       <c r="M5">
-        <v>1.038719147173396</v>
+        <v>1.058704163072176</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024413836135125</v>
+        <v>1.048436108218337</v>
       </c>
       <c r="D6">
-        <v>1.036585195913068</v>
+        <v>1.049827309165887</v>
       </c>
       <c r="E6">
-        <v>1.026643224798208</v>
+        <v>1.04572296206203</v>
       </c>
       <c r="F6">
-        <v>1.029473509462921</v>
+        <v>1.056386842252296</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050812675514541</v>
+        <v>1.044162034221212</v>
       </c>
       <c r="J6">
-        <v>1.042700503980217</v>
+        <v>1.052797307035892</v>
       </c>
       <c r="K6">
-        <v>1.046011258109161</v>
+        <v>1.052217198303266</v>
       </c>
       <c r="L6">
-        <v>1.036177166044139</v>
+        <v>1.048122723071851</v>
       </c>
       <c r="M6">
-        <v>1.038976479262202</v>
+        <v>1.058761125225249</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022543645961776</v>
+        <v>1.048045663001911</v>
       </c>
       <c r="D7">
-        <v>1.035135895699028</v>
+        <v>1.049521536949698</v>
       </c>
       <c r="E7">
-        <v>1.025093930046011</v>
+        <v>1.045387041756103</v>
       </c>
       <c r="F7">
-        <v>1.02742380379122</v>
+        <v>1.055935481549429</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050114421586122</v>
+        <v>1.044037248973103</v>
       </c>
       <c r="J7">
-        <v>1.041381862380562</v>
+        <v>1.052518297600056</v>
       </c>
       <c r="K7">
-        <v>1.044825112783627</v>
+        <v>1.05197109997206</v>
       </c>
       <c r="L7">
-        <v>1.03489573775864</v>
+        <v>1.047846812875542</v>
       </c>
       <c r="M7">
-        <v>1.037199247352685</v>
+        <v>1.058369378595552</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014518248589144</v>
+        <v>1.046412381262705</v>
       </c>
       <c r="D8">
-        <v>1.02892141845707</v>
+        <v>1.04824220245547</v>
       </c>
       <c r="E8">
-        <v>1.018456520299414</v>
+        <v>1.043982296316304</v>
       </c>
       <c r="F8">
-        <v>1.018635987362322</v>
+        <v>1.054048301340043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047096084967606</v>
+        <v>1.043512522700286</v>
       </c>
       <c r="J8">
-        <v>1.03571352881946</v>
+        <v>1.05134977240523</v>
       </c>
       <c r="K8">
-        <v>1.039723378836347</v>
+        <v>1.050939943162424</v>
       </c>
       <c r="L8">
-        <v>1.029392157805379</v>
+        <v>1.046691692980654</v>
       </c>
       <c r="M8">
-        <v>1.029569303420479</v>
+        <v>1.056730319567519</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9995046944839293</v>
+        <v>1.043529281480873</v>
       </c>
       <c r="D9">
-        <v>1.017319580137865</v>
+        <v>1.04598300060436</v>
       </c>
       <c r="E9">
-        <v>1.006086948199505</v>
+        <v>1.041504364036812</v>
       </c>
       <c r="F9">
-        <v>1.002224467740852</v>
+        <v>1.050720438655874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041367633956047</v>
+        <v>1.042575966045973</v>
       </c>
       <c r="J9">
-        <v>1.025074955397131</v>
+        <v>1.049281833199635</v>
       </c>
       <c r="K9">
-        <v>1.030137772772561</v>
+        <v>1.04911335279728</v>
       </c>
       <c r="L9">
-        <v>1.019082034880171</v>
+        <v>1.044649089806824</v>
       </c>
       <c r="M9">
-        <v>1.01528155731166</v>
+        <v>1.053835732552515</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9888172809319037</v>
+        <v>1.041603624290201</v>
       </c>
       <c r="D10">
-        <v>1.009082785563097</v>
+        <v>1.044473494456281</v>
       </c>
       <c r="E10">
-        <v>0.9973192610757949</v>
+        <v>1.039850543879658</v>
       </c>
       <c r="F10">
-        <v>0.9905586958888917</v>
+        <v>1.048499982498132</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037237255291271</v>
+        <v>1.041943512934833</v>
       </c>
       <c r="J10">
-        <v>1.017481713258626</v>
+        <v>1.047897128045559</v>
       </c>
       <c r="K10">
-        <v>1.023289961392301</v>
+        <v>1.047889088927992</v>
       </c>
       <c r="L10">
-        <v>1.011737086368704</v>
+        <v>1.043282441092064</v>
       </c>
       <c r="M10">
-        <v>1.00510053434526</v>
+        <v>1.051901506647815</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9840050808100788</v>
+        <v>1.040768897487658</v>
       </c>
       <c r="D11">
-        <v>1.005380660098733</v>
+        <v>1.043819036668174</v>
       </c>
       <c r="E11">
-        <v>0.9933817232701464</v>
+        <v>1.039133950918332</v>
       </c>
       <c r="F11">
-        <v>0.9853093126797905</v>
+        <v>1.047537995765652</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035365749898455</v>
+        <v>1.041667721625165</v>
       </c>
       <c r="J11">
-        <v>1.014058745365661</v>
+        <v>1.047296064032189</v>
       </c>
       <c r="K11">
-        <v>1.020201813448438</v>
+        <v>1.047357393743445</v>
       </c>
       <c r="L11">
-        <v>1.008429539263635</v>
+        <v>1.042689475146048</v>
       </c>
       <c r="M11">
-        <v>1.000513695398703</v>
+        <v>1.05106284653627</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9821876326827076</v>
+        <v>1.040458702981133</v>
       </c>
       <c r="D12">
-        <v>1.003983589703586</v>
+        <v>1.043575814683648</v>
       </c>
       <c r="E12">
-        <v>0.9918962823232088</v>
+        <v>1.038867702064534</v>
       </c>
       <c r="F12">
-        <v>0.9833271902975612</v>
+        <v>1.047180588629667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034657236773862</v>
+        <v>1.041564988375987</v>
       </c>
       <c r="J12">
-        <v>1.012765454369825</v>
+        <v>1.047072577475409</v>
       </c>
       <c r="K12">
-        <v>1.019034866311725</v>
+        <v>1.047159658735373</v>
       </c>
       <c r="L12">
-        <v>1.007180401199367</v>
+        <v>1.042469038819321</v>
       </c>
       <c r="M12">
-        <v>0.9987809410911146</v>
+        <v>1.050751156925893</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9825788774068103</v>
+        <v>1.040525247145239</v>
       </c>
       <c r="D13">
-        <v>1.004284285821998</v>
+        <v>1.043627992418708</v>
       </c>
       <c r="E13">
-        <v>0.9922159778851086</v>
+        <v>1.038924816751301</v>
       </c>
       <c r="F13">
-        <v>0.9837538659674895</v>
+        <v>1.047257257486263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034809834648983</v>
+        <v>1.041587038245916</v>
       </c>
       <c r="J13">
-        <v>1.013043885269822</v>
+        <v>1.047120526307463</v>
       </c>
       <c r="K13">
-        <v>1.019286103674101</v>
+        <v>1.047202084450762</v>
       </c>
       <c r="L13">
-        <v>1.007449301596329</v>
+        <v>1.042516331450812</v>
       </c>
       <c r="M13">
-        <v>0.9991539729674407</v>
+        <v>1.050818023347413</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838554756200393</v>
+        <v>1.040743259587656</v>
       </c>
       <c r="D14">
-        <v>1.005265635014371</v>
+        <v>1.043798934471559</v>
       </c>
       <c r="E14">
-        <v>0.9932594129749183</v>
+        <v>1.039111944235785</v>
       </c>
       <c r="F14">
-        <v>0.9851461436349762</v>
+        <v>1.047508454091579</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035307461797948</v>
+        <v>1.041659235628998</v>
       </c>
       <c r="J14">
-        <v>1.013952296851164</v>
+        <v>1.047277595161157</v>
       </c>
       <c r="K14">
-        <v>1.020105767194775</v>
+        <v>1.047341053809662</v>
       </c>
       <c r="L14">
-        <v>1.008326713748948</v>
+        <v>1.04267125754468</v>
       </c>
       <c r="M14">
-        <v>1.000371070517614</v>
+        <v>1.051037085749549</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9846379848519162</v>
+        <v>1.040877565605864</v>
       </c>
       <c r="D15">
-        <v>1.005867319959674</v>
+        <v>1.043904240585668</v>
       </c>
       <c r="E15">
-        <v>0.9938992250581917</v>
+        <v>1.039227229731006</v>
       </c>
       <c r="F15">
-        <v>0.9859996160041923</v>
+        <v>1.0476632135341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035612269025536</v>
+        <v>1.041703680075249</v>
       </c>
       <c r="J15">
-        <v>1.014509054559893</v>
+        <v>1.047374340622472</v>
       </c>
       <c r="K15">
-        <v>1.020608111570785</v>
+        <v>1.047426645582852</v>
       </c>
       <c r="L15">
-        <v>1.008864544316087</v>
+        <v>1.042766688386729</v>
       </c>
       <c r="M15">
-        <v>1.001117052078177</v>
+        <v>1.051172034146485</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9891325761425539</v>
+        <v>1.041659002968163</v>
       </c>
       <c r="D16">
-        <v>1.009325497308909</v>
+        <v>1.044516910948269</v>
       </c>
       <c r="E16">
-        <v>0.9975774717801774</v>
+        <v>1.039898091510504</v>
       </c>
       <c r="F16">
-        <v>0.9909026994734719</v>
+        <v>1.048563815111222</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03735963880007</v>
+        <v>1.041961775411645</v>
       </c>
       <c r="J16">
-        <v>1.017705909829475</v>
+        <v>1.047936987329758</v>
       </c>
       <c r="K16">
-        <v>1.023492204677932</v>
+        <v>1.047924342288851</v>
       </c>
       <c r="L16">
-        <v>1.011953797100824</v>
+        <v>1.043321768844832</v>
       </c>
       <c r="M16">
-        <v>1.00540100721523</v>
+        <v>1.051957141617492</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9919009998579864</v>
+        <v>1.042148933055577</v>
       </c>
       <c r="D17">
-        <v>1.011457373954499</v>
+        <v>1.04490099861838</v>
       </c>
       <c r="E17">
-        <v>0.9998458458584932</v>
+        <v>1.040318775653327</v>
       </c>
       <c r="F17">
-        <v>0.9939235658921682</v>
+        <v>1.04912859731249</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038432898047465</v>
+        <v>1.04212315279065</v>
       </c>
       <c r="J17">
-        <v>1.019674008271155</v>
+        <v>1.048289523306851</v>
       </c>
       <c r="K17">
-        <v>1.025267452536775</v>
+        <v>1.048236109468455</v>
       </c>
       <c r="L17">
-        <v>1.013856578495227</v>
+        <v>1.043669633725673</v>
       </c>
       <c r="M17">
-        <v>1.008038982502196</v>
+        <v>1.052449313744735</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9934981406242598</v>
+        <v>1.042434613978414</v>
       </c>
       <c r="D18">
-        <v>1.012687898717929</v>
+        <v>1.045124950369871</v>
       </c>
       <c r="E18">
-        <v>1.00115546053488</v>
+        <v>1.040564107656083</v>
       </c>
       <c r="F18">
-        <v>0.9956666635229994</v>
+        <v>1.049457975915349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039050965557511</v>
+        <v>1.042217094885659</v>
       </c>
       <c r="J18">
-        <v>1.020809050870135</v>
+        <v>1.048495009195871</v>
       </c>
       <c r="K18">
-        <v>1.026291158425591</v>
+        <v>1.048417805613137</v>
       </c>
       <c r="L18">
-        <v>1.014954278987096</v>
+        <v>1.043872421994764</v>
       </c>
       <c r="M18">
-        <v>1.009560617586284</v>
+        <v>1.052736280935435</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9940397981902748</v>
+        <v>1.042532009149966</v>
       </c>
       <c r="D19">
-        <v>1.013105322219968</v>
+        <v>1.045201298613521</v>
       </c>
       <c r="E19">
-        <v>1.001599765081458</v>
+        <v>1.040647751812386</v>
       </c>
       <c r="F19">
-        <v>0.9962578771006942</v>
+        <v>1.049570277299196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039260387934307</v>
+        <v>1.042249095103075</v>
       </c>
       <c r="J19">
-        <v>1.021193924957524</v>
+        <v>1.048565050502514</v>
       </c>
       <c r="K19">
-        <v>1.026638259808364</v>
+        <v>1.048479733524509</v>
       </c>
       <c r="L19">
-        <v>1.015326546014921</v>
+        <v>1.043941548046483</v>
       </c>
       <c r="M19">
-        <v>1.010076626474994</v>
+        <v>1.052834111066371</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9916058137486063</v>
+        <v>1.042096377223143</v>
       </c>
       <c r="D20">
-        <v>1.01122999540515</v>
+        <v>1.044859797947701</v>
       </c>
       <c r="E20">
-        <v>0.9996038775745276</v>
+        <v>1.04027364499724</v>
       </c>
       <c r="F20">
-        <v>0.9936014300692582</v>
+        <v>1.04906800666527</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038318575479784</v>
+        <v>1.042105857836547</v>
       </c>
       <c r="J20">
-        <v>1.019464196623778</v>
+        <v>1.04825171428019</v>
       </c>
       <c r="K20">
-        <v>1.025078211855007</v>
+        <v>1.04820267557873</v>
       </c>
       <c r="L20">
-        <v>1.01365369589564</v>
+        <v>1.04363232307383</v>
       </c>
       <c r="M20">
-        <v>1.007757731520205</v>
+        <v>1.052396519588385</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9834803963999115</v>
+        <v>1.040679064247994</v>
       </c>
       <c r="D21">
-        <v>1.00497727116725</v>
+        <v>1.043748599827903</v>
       </c>
       <c r="E21">
-        <v>0.9929527928239041</v>
+        <v>1.039056841927582</v>
       </c>
       <c r="F21">
-        <v>0.9847370649409917</v>
+        <v>1.04743448526898</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035161299147128</v>
+        <v>1.041637983372981</v>
       </c>
       <c r="J21">
-        <v>1.013685408782449</v>
+        <v>1.047231348520421</v>
       </c>
       <c r="K21">
-        <v>1.01986495720844</v>
+        <v>1.047300137433293</v>
       </c>
       <c r="L21">
-        <v>1.008068918093979</v>
+        <v>1.042625640725032</v>
       </c>
       <c r="M21">
-        <v>1.000013484991801</v>
+        <v>1.050972582168968</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9781968396887611</v>
+        <v>1.039787132505777</v>
       </c>
       <c r="D22">
-        <v>1.000918111432519</v>
+        <v>1.043049208261571</v>
       </c>
       <c r="E22">
-        <v>0.9886377433667822</v>
+        <v>1.038291358282752</v>
       </c>
       <c r="F22">
-        <v>0.9789755340895681</v>
+        <v>1.046406946059668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033098431506672</v>
+        <v>1.041342121574375</v>
       </c>
       <c r="J22">
-        <v>1.009924746088662</v>
+        <v>1.046588503173408</v>
       </c>
       <c r="K22">
-        <v>1.016471402270902</v>
+        <v>1.046731287684928</v>
       </c>
       <c r="L22">
-        <v>1.004437699933858</v>
+        <v>1.04199164323743</v>
       </c>
       <c r="M22">
-        <v>0.9949753209900053</v>
+        <v>1.050076287800696</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9810151452968756</v>
+        <v>1.04026004056381</v>
       </c>
       <c r="D23">
-        <v>1.003082636088187</v>
+        <v>1.04342003960458</v>
       </c>
       <c r="E23">
-        <v>0.9909384693647384</v>
+        <v>1.038697197369054</v>
       </c>
       <c r="F23">
-        <v>0.9820485820252112</v>
+        <v>1.046951711200018</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034199687098805</v>
+        <v>1.041499124216819</v>
       </c>
       <c r="J23">
-        <v>1.01193097873546</v>
+        <v>1.046929411847511</v>
       </c>
       <c r="K23">
-        <v>1.018281869789057</v>
+        <v>1.047032978034071</v>
       </c>
       <c r="L23">
-        <v>1.006374570395455</v>
+        <v>1.042327838227851</v>
       </c>
       <c r="M23">
-        <v>0.9976629708969048</v>
+        <v>1.050551527496225</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9917392499715971</v>
+        <v>1.042120125210276</v>
       </c>
       <c r="D24">
-        <v>1.011332777926905</v>
+        <v>1.044878415004761</v>
       </c>
       <c r="E24">
-        <v>0.9997132541899655</v>
+        <v>1.04029403774002</v>
       </c>
       <c r="F24">
-        <v>0.9937470476717427</v>
+        <v>1.049095385122726</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0383702574189</v>
+        <v>1.042113673258382</v>
       </c>
       <c r="J24">
-        <v>1.019559041274601</v>
+        <v>1.048268798991731</v>
       </c>
       <c r="K24">
-        <v>1.025163757831204</v>
+        <v>1.048217783385121</v>
       </c>
       <c r="L24">
-        <v>1.013745407277976</v>
+        <v>1.043649182507991</v>
       </c>
       <c r="M24">
-        <v>1.007884869263441</v>
+        <v>1.052420375330119</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003498319128389</v>
+        <v>1.044275250331214</v>
       </c>
       <c r="D25">
-        <v>1.020402359413837</v>
+        <v>1.046567644590187</v>
       </c>
       <c r="E25">
-        <v>1.009371253063335</v>
+        <v>1.042145288636675</v>
       </c>
       <c r="F25">
-        <v>1.006586894650308</v>
+        <v>1.051581083309771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042900621664315</v>
+        <v>1.04281950801395</v>
       </c>
       <c r="J25">
-        <v>1.02790852172937</v>
+        <v>1.04981750696802</v>
       </c>
       <c r="K25">
-        <v>1.0326920007142</v>
+        <v>1.049586714336185</v>
       </c>
       <c r="L25">
-        <v>1.021825813599436</v>
+        <v>1.045178009103106</v>
       </c>
       <c r="M25">
-        <v>1.01908381092638</v>
+        <v>1.054584829280424</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045991572272741</v>
+        <v>1.012396112597345</v>
       </c>
       <c r="D2">
-        <v>1.047912524197417</v>
+        <v>1.027279534055017</v>
       </c>
       <c r="E2">
-        <v>1.043620486007929</v>
+        <v>1.016704363937882</v>
       </c>
       <c r="F2">
-        <v>1.053562309972953</v>
+        <v>1.016314198724507</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043376629930184</v>
+        <v>1.04629243837438</v>
       </c>
       <c r="J2">
-        <v>1.051048350395161</v>
+        <v>1.03421227564622</v>
       </c>
       <c r="K2">
-        <v>1.050673836319029</v>
+        <v>1.038371466375731</v>
       </c>
       <c r="L2">
-        <v>1.046393837905037</v>
+        <v>1.027935784150162</v>
       </c>
       <c r="M2">
-        <v>1.056307935735966</v>
+        <v>1.027550835003845</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047236337949261</v>
+        <v>1.018608248133002</v>
       </c>
       <c r="D3">
-        <v>1.048887649499187</v>
+        <v>1.0320875091552</v>
       </c>
       <c r="E3">
-        <v>1.044690870434723</v>
+        <v>1.021836941982804</v>
       </c>
       <c r="F3">
-        <v>1.055000161718333</v>
+        <v>1.023113007498964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043777781630567</v>
+        <v>1.048638614238377</v>
       </c>
       <c r="J3">
-        <v>1.051939546910758</v>
+        <v>1.038604174748462</v>
       </c>
       <c r="K3">
-        <v>1.051460478548694</v>
+        <v>1.042325648046573</v>
       </c>
       <c r="L3">
-        <v>1.04727461669178</v>
+        <v>1.03219783590123</v>
       </c>
       <c r="M3">
-        <v>1.057557257706076</v>
+        <v>1.033458453545544</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048041143505221</v>
+        <v>1.02252189091218</v>
       </c>
       <c r="D4">
-        <v>1.049517997423586</v>
+        <v>1.035119039021331</v>
       </c>
       <c r="E4">
-        <v>1.04538315364366</v>
+        <v>1.025075913521226</v>
       </c>
       <c r="F4">
-        <v>1.05593025744688</v>
+        <v>1.027399964889191</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044035803055176</v>
+        <v>1.050106287137674</v>
       </c>
       <c r="J4">
-        <v>1.052515067234552</v>
+        <v>1.041366517841672</v>
       </c>
       <c r="K4">
-        <v>1.051968250394143</v>
+        <v>1.044811308422489</v>
       </c>
       <c r="L4">
-        <v>1.047843618625593</v>
+        <v>1.034880828808653</v>
       </c>
       <c r="M4">
-        <v>1.058364843853476</v>
+        <v>1.037178571807022</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048379333379124</v>
+        <v>1.024143023821424</v>
       </c>
       <c r="D5">
-        <v>1.049782848163069</v>
+        <v>1.036375305933308</v>
       </c>
       <c r="E5">
-        <v>1.045674113111397</v>
+        <v>1.026418819632247</v>
       </c>
       <c r="F5">
-        <v>1.056321204275614</v>
+        <v>1.029176655914887</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044143905090804</v>
+        <v>1.050711692547629</v>
       </c>
       <c r="J5">
-        <v>1.05275674427203</v>
+        <v>1.042509616044987</v>
       </c>
       <c r="K5">
-        <v>1.052181422931125</v>
+        <v>1.045839567874979</v>
       </c>
       <c r="L5">
-        <v>1.048082608404508</v>
+        <v>1.035991638138207</v>
       </c>
       <c r="M5">
-        <v>1.058704163072176</v>
+        <v>1.038719147173395</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048436108218337</v>
+        <v>1.024413836135125</v>
       </c>
       <c r="D6">
-        <v>1.049827309165887</v>
+        <v>1.036585195913068</v>
       </c>
       <c r="E6">
-        <v>1.04572296206203</v>
+        <v>1.026643224798208</v>
       </c>
       <c r="F6">
-        <v>1.056386842252296</v>
+        <v>1.029473509462921</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044162034221212</v>
+        <v>1.050812675514542</v>
       </c>
       <c r="J6">
-        <v>1.052797307035892</v>
+        <v>1.042700503980217</v>
       </c>
       <c r="K6">
-        <v>1.052217198303266</v>
+        <v>1.046011258109161</v>
       </c>
       <c r="L6">
-        <v>1.048122723071851</v>
+        <v>1.036177166044139</v>
       </c>
       <c r="M6">
-        <v>1.058761125225249</v>
+        <v>1.038976479262202</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048045663001911</v>
+        <v>1.022543645961775</v>
       </c>
       <c r="D7">
-        <v>1.049521536949698</v>
+        <v>1.035135895699027</v>
       </c>
       <c r="E7">
-        <v>1.045387041756103</v>
+        <v>1.02509393004601</v>
       </c>
       <c r="F7">
-        <v>1.055935481549429</v>
+        <v>1.027423803791219</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044037248973103</v>
+        <v>1.050114421586122</v>
       </c>
       <c r="J7">
-        <v>1.052518297600056</v>
+        <v>1.041381862380561</v>
       </c>
       <c r="K7">
-        <v>1.05197109997206</v>
+        <v>1.044825112783626</v>
       </c>
       <c r="L7">
-        <v>1.047846812875542</v>
+        <v>1.034895737758639</v>
       </c>
       <c r="M7">
-        <v>1.058369378595552</v>
+        <v>1.037199247352685</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046412381262705</v>
+        <v>1.014518248589143</v>
       </c>
       <c r="D8">
-        <v>1.04824220245547</v>
+        <v>1.02892141845707</v>
       </c>
       <c r="E8">
-        <v>1.043982296316304</v>
+        <v>1.018456520299414</v>
       </c>
       <c r="F8">
-        <v>1.054048301340043</v>
+        <v>1.018635987362322</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043512522700286</v>
+        <v>1.047096084967606</v>
       </c>
       <c r="J8">
-        <v>1.05134977240523</v>
+        <v>1.03571352881946</v>
       </c>
       <c r="K8">
-        <v>1.050939943162424</v>
+        <v>1.039723378836347</v>
       </c>
       <c r="L8">
-        <v>1.046691692980654</v>
+        <v>1.029392157805379</v>
       </c>
       <c r="M8">
-        <v>1.056730319567519</v>
+        <v>1.029569303420479</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043529281480873</v>
+        <v>0.9995046944839289</v>
       </c>
       <c r="D9">
-        <v>1.04598300060436</v>
+        <v>1.017319580137864</v>
       </c>
       <c r="E9">
-        <v>1.041504364036812</v>
+        <v>1.006086948199505</v>
       </c>
       <c r="F9">
-        <v>1.050720438655874</v>
+        <v>1.002224467740852</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042575966045973</v>
+        <v>1.041367633956047</v>
       </c>
       <c r="J9">
-        <v>1.049281833199635</v>
+        <v>1.025074955397131</v>
       </c>
       <c r="K9">
-        <v>1.04911335279728</v>
+        <v>1.030137772772561</v>
       </c>
       <c r="L9">
-        <v>1.044649089806824</v>
+        <v>1.019082034880171</v>
       </c>
       <c r="M9">
-        <v>1.053835732552515</v>
+        <v>1.01528155731166</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041603624290201</v>
+        <v>0.9888172809319035</v>
       </c>
       <c r="D10">
-        <v>1.044473494456281</v>
+        <v>1.009082785563097</v>
       </c>
       <c r="E10">
-        <v>1.039850543879658</v>
+        <v>0.997319261075795</v>
       </c>
       <c r="F10">
-        <v>1.048499982498132</v>
+        <v>0.9905586958888916</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041943512934833</v>
+        <v>1.037237255291271</v>
       </c>
       <c r="J10">
-        <v>1.047897128045559</v>
+        <v>1.017481713258626</v>
       </c>
       <c r="K10">
-        <v>1.047889088927992</v>
+        <v>1.023289961392301</v>
       </c>
       <c r="L10">
-        <v>1.043282441092064</v>
+        <v>1.011737086368704</v>
       </c>
       <c r="M10">
-        <v>1.051901506647815</v>
+        <v>1.00510053434526</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040768897487658</v>
+        <v>0.9840050808100795</v>
       </c>
       <c r="D11">
-        <v>1.043819036668174</v>
+        <v>1.005380660098733</v>
       </c>
       <c r="E11">
-        <v>1.039133950918332</v>
+        <v>0.9933817232701471</v>
       </c>
       <c r="F11">
-        <v>1.047537995765652</v>
+        <v>0.9853093126797906</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041667721625165</v>
+        <v>1.035365749898456</v>
       </c>
       <c r="J11">
-        <v>1.047296064032189</v>
+        <v>1.014058745365662</v>
       </c>
       <c r="K11">
-        <v>1.047357393743445</v>
+        <v>1.020201813448439</v>
       </c>
       <c r="L11">
-        <v>1.042689475146048</v>
+        <v>1.008429539263635</v>
       </c>
       <c r="M11">
-        <v>1.05106284653627</v>
+        <v>1.000513695398704</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040458702981133</v>
+        <v>0.9821876326827075</v>
       </c>
       <c r="D12">
-        <v>1.043575814683648</v>
+        <v>1.003983589703586</v>
       </c>
       <c r="E12">
-        <v>1.038867702064534</v>
+        <v>0.9918962823232081</v>
       </c>
       <c r="F12">
-        <v>1.047180588629667</v>
+        <v>0.9833271902975608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041564988375987</v>
+        <v>1.034657236773862</v>
       </c>
       <c r="J12">
-        <v>1.047072577475409</v>
+        <v>1.012765454369825</v>
       </c>
       <c r="K12">
-        <v>1.047159658735373</v>
+        <v>1.019034866311725</v>
       </c>
       <c r="L12">
-        <v>1.042469038819321</v>
+        <v>1.007180401199367</v>
       </c>
       <c r="M12">
-        <v>1.050751156925893</v>
+        <v>0.9987809410911144</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040525247145239</v>
+        <v>0.9825788774068088</v>
       </c>
       <c r="D13">
-        <v>1.043627992418708</v>
+        <v>1.004284285821996</v>
       </c>
       <c r="E13">
-        <v>1.038924816751301</v>
+        <v>0.9922159778851072</v>
       </c>
       <c r="F13">
-        <v>1.047257257486263</v>
+        <v>0.9837538659674878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041587038245916</v>
+        <v>1.034809834648982</v>
       </c>
       <c r="J13">
-        <v>1.047120526307463</v>
+        <v>1.013043885269821</v>
       </c>
       <c r="K13">
-        <v>1.047202084450762</v>
+        <v>1.0192861036741</v>
       </c>
       <c r="L13">
-        <v>1.042516331450812</v>
+        <v>1.007449301596328</v>
       </c>
       <c r="M13">
-        <v>1.050818023347413</v>
+        <v>0.9991539729674394</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040743259587656</v>
+        <v>0.9838554756200403</v>
       </c>
       <c r="D14">
-        <v>1.043798934471559</v>
+        <v>1.005265635014372</v>
       </c>
       <c r="E14">
-        <v>1.039111944235785</v>
+        <v>0.9932594129749188</v>
       </c>
       <c r="F14">
-        <v>1.047508454091579</v>
+        <v>0.985146143634977</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041659235628998</v>
+        <v>1.035307461797949</v>
       </c>
       <c r="J14">
-        <v>1.047277595161157</v>
+        <v>1.013952296851165</v>
       </c>
       <c r="K14">
-        <v>1.047341053809662</v>
+        <v>1.020105767194776</v>
       </c>
       <c r="L14">
-        <v>1.04267125754468</v>
+        <v>1.008326713748949</v>
       </c>
       <c r="M14">
-        <v>1.051037085749549</v>
+        <v>1.000371070517615</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040877565605864</v>
+        <v>0.9846379848519178</v>
       </c>
       <c r="D15">
-        <v>1.043904240585668</v>
+        <v>1.005867319959676</v>
       </c>
       <c r="E15">
-        <v>1.039227229731006</v>
+        <v>0.9938992250581934</v>
       </c>
       <c r="F15">
-        <v>1.0476632135341</v>
+        <v>0.9859996160041939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041703680075249</v>
+        <v>1.035612269025537</v>
       </c>
       <c r="J15">
-        <v>1.047374340622472</v>
+        <v>1.014509054559895</v>
       </c>
       <c r="K15">
-        <v>1.047426645582852</v>
+        <v>1.020608111570787</v>
       </c>
       <c r="L15">
-        <v>1.042766688386729</v>
+        <v>1.008864544316089</v>
       </c>
       <c r="M15">
-        <v>1.051172034146485</v>
+        <v>1.001117052078179</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041659002968163</v>
+        <v>0.9891325761425536</v>
       </c>
       <c r="D16">
-        <v>1.044516910948269</v>
+        <v>1.009325497308909</v>
       </c>
       <c r="E16">
-        <v>1.039898091510504</v>
+        <v>0.997577471780177</v>
       </c>
       <c r="F16">
-        <v>1.048563815111222</v>
+        <v>0.9909026994734715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041961775411645</v>
+        <v>1.037359638800069</v>
       </c>
       <c r="J16">
-        <v>1.047936987329758</v>
+        <v>1.017705909829475</v>
       </c>
       <c r="K16">
-        <v>1.047924342288851</v>
+        <v>1.023492204677932</v>
       </c>
       <c r="L16">
-        <v>1.043321768844832</v>
+        <v>1.011953797100824</v>
       </c>
       <c r="M16">
-        <v>1.051957141617492</v>
+        <v>1.00540100721523</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042148933055577</v>
+        <v>0.9919009998579852</v>
       </c>
       <c r="D17">
-        <v>1.04490099861838</v>
+        <v>1.011457373954498</v>
       </c>
       <c r="E17">
-        <v>1.040318775653327</v>
+        <v>0.9998458458584921</v>
       </c>
       <c r="F17">
-        <v>1.04912859731249</v>
+        <v>0.9939235658921669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04212315279065</v>
+        <v>1.038432898047464</v>
       </c>
       <c r="J17">
-        <v>1.048289523306851</v>
+        <v>1.019674008271154</v>
       </c>
       <c r="K17">
-        <v>1.048236109468455</v>
+        <v>1.025267452536774</v>
       </c>
       <c r="L17">
-        <v>1.043669633725673</v>
+        <v>1.013856578495226</v>
       </c>
       <c r="M17">
-        <v>1.052449313744735</v>
+        <v>1.008038982502194</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042434613978414</v>
+        <v>0.9934981406242605</v>
       </c>
       <c r="D18">
-        <v>1.045124950369871</v>
+        <v>1.01268789871793</v>
       </c>
       <c r="E18">
-        <v>1.040564107656083</v>
+        <v>1.00115546053488</v>
       </c>
       <c r="F18">
-        <v>1.049457975915349</v>
+        <v>0.995666663523</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042217094885659</v>
+        <v>1.039050965557511</v>
       </c>
       <c r="J18">
-        <v>1.048495009195871</v>
+        <v>1.020809050870136</v>
       </c>
       <c r="K18">
-        <v>1.048417805613137</v>
+        <v>1.026291158425591</v>
       </c>
       <c r="L18">
-        <v>1.043872421994764</v>
+        <v>1.014954278987096</v>
       </c>
       <c r="M18">
-        <v>1.052736280935435</v>
+        <v>1.009560617586284</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042532009149966</v>
+        <v>0.994039798190277</v>
       </c>
       <c r="D19">
-        <v>1.045201298613521</v>
+        <v>1.01310532221997</v>
       </c>
       <c r="E19">
-        <v>1.040647751812386</v>
+        <v>1.00159976508146</v>
       </c>
       <c r="F19">
-        <v>1.049570277299196</v>
+        <v>0.9962578771006958</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042249095103075</v>
+        <v>1.039260387934308</v>
       </c>
       <c r="J19">
-        <v>1.048565050502514</v>
+        <v>1.021193924957526</v>
       </c>
       <c r="K19">
-        <v>1.048479733524509</v>
+        <v>1.026638259808365</v>
       </c>
       <c r="L19">
-        <v>1.043941548046483</v>
+        <v>1.015326546014923</v>
       </c>
       <c r="M19">
-        <v>1.052834111066371</v>
+        <v>1.010076626474996</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042096377223143</v>
+        <v>0.9916058137486068</v>
       </c>
       <c r="D20">
-        <v>1.044859797947701</v>
+        <v>1.01122999540515</v>
       </c>
       <c r="E20">
-        <v>1.04027364499724</v>
+        <v>0.9996038775745277</v>
       </c>
       <c r="F20">
-        <v>1.04906800666527</v>
+        <v>0.9936014300692583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042105857836547</v>
+        <v>1.038318575479784</v>
       </c>
       <c r="J20">
-        <v>1.04825171428019</v>
+        <v>1.019464196623779</v>
       </c>
       <c r="K20">
-        <v>1.04820267557873</v>
+        <v>1.025078211855007</v>
       </c>
       <c r="L20">
-        <v>1.04363232307383</v>
+        <v>1.01365369589564</v>
       </c>
       <c r="M20">
-        <v>1.052396519588385</v>
+        <v>1.007757731520205</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040679064247994</v>
+        <v>0.9834803963999114</v>
       </c>
       <c r="D21">
-        <v>1.043748599827903</v>
+        <v>1.00497727116725</v>
       </c>
       <c r="E21">
-        <v>1.039056841927582</v>
+        <v>0.9929527928239037</v>
       </c>
       <c r="F21">
-        <v>1.04743448526898</v>
+        <v>0.9847370649409913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041637983372981</v>
+        <v>1.035161299147128</v>
       </c>
       <c r="J21">
-        <v>1.047231348520421</v>
+        <v>1.013685408782449</v>
       </c>
       <c r="K21">
-        <v>1.047300137433293</v>
+        <v>1.01986495720844</v>
       </c>
       <c r="L21">
-        <v>1.042625640725032</v>
+        <v>1.008068918093978</v>
       </c>
       <c r="M21">
-        <v>1.050972582168968</v>
+        <v>1.000013484991801</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039787132505777</v>
+        <v>0.9781968396887591</v>
       </c>
       <c r="D22">
-        <v>1.043049208261571</v>
+        <v>1.000918111432517</v>
       </c>
       <c r="E22">
-        <v>1.038291358282752</v>
+        <v>0.9886377433667803</v>
       </c>
       <c r="F22">
-        <v>1.046406946059668</v>
+        <v>0.9789755340895663</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041342121574375</v>
+        <v>1.033098431506671</v>
       </c>
       <c r="J22">
-        <v>1.046588503173408</v>
+        <v>1.00992474608866</v>
       </c>
       <c r="K22">
-        <v>1.046731287684928</v>
+        <v>1.016471402270901</v>
       </c>
       <c r="L22">
-        <v>1.04199164323743</v>
+        <v>1.004437699933856</v>
       </c>
       <c r="M22">
-        <v>1.050076287800696</v>
+        <v>0.9949753209900034</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04026004056381</v>
+        <v>0.9810151452968748</v>
       </c>
       <c r="D23">
-        <v>1.04342003960458</v>
+        <v>1.003082636088186</v>
       </c>
       <c r="E23">
-        <v>1.038697197369054</v>
+        <v>0.9909384693647374</v>
       </c>
       <c r="F23">
-        <v>1.046951711200018</v>
+        <v>0.9820485820252104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041499124216819</v>
+        <v>1.034199687098805</v>
       </c>
       <c r="J23">
-        <v>1.046929411847511</v>
+        <v>1.01193097873546</v>
       </c>
       <c r="K23">
-        <v>1.047032978034071</v>
+        <v>1.018281869789056</v>
       </c>
       <c r="L23">
-        <v>1.042327838227851</v>
+        <v>1.006374570395454</v>
       </c>
       <c r="M23">
-        <v>1.050551527496225</v>
+        <v>0.9976629708969039</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042120125210276</v>
+        <v>0.9917392499715966</v>
       </c>
       <c r="D24">
-        <v>1.044878415004761</v>
+        <v>1.011332777926904</v>
       </c>
       <c r="E24">
-        <v>1.04029403774002</v>
+        <v>0.999713254189965</v>
       </c>
       <c r="F24">
-        <v>1.049095385122726</v>
+        <v>0.9937470476717424</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042113673258382</v>
+        <v>1.038370257418899</v>
       </c>
       <c r="J24">
-        <v>1.048268798991731</v>
+        <v>1.019559041274601</v>
       </c>
       <c r="K24">
-        <v>1.048217783385121</v>
+        <v>1.025163757831204</v>
       </c>
       <c r="L24">
-        <v>1.043649182507991</v>
+        <v>1.013745407277976</v>
       </c>
       <c r="M24">
-        <v>1.052420375330119</v>
+        <v>1.00788486926344</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044275250331214</v>
+        <v>1.00349831912839</v>
       </c>
       <c r="D25">
-        <v>1.046567644590187</v>
+        <v>1.020402359413837</v>
       </c>
       <c r="E25">
-        <v>1.042145288636675</v>
+        <v>1.009371253063335</v>
       </c>
       <c r="F25">
-        <v>1.051581083309771</v>
+        <v>1.006586894650308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04281950801395</v>
+        <v>1.042900621664315</v>
       </c>
       <c r="J25">
-        <v>1.04981750696802</v>
+        <v>1.027908521729371</v>
       </c>
       <c r="K25">
-        <v>1.049586714336185</v>
+        <v>1.0326920007142</v>
       </c>
       <c r="L25">
-        <v>1.045178009103106</v>
+        <v>1.021825813599437</v>
       </c>
       <c r="M25">
-        <v>1.054584829280424</v>
+        <v>1.01908381092638</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
